--- a/biology/Zoologie/Diamantinasauria/Diamantinasauria.xlsx
+++ b/biology/Zoologie/Diamantinasauria/Diamantinasauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diamantinasauria est un clade éteint de dinosaures Sauropoda Titanosauria non-Lithostrotia, connu au début du Crétacé supérieur (Cénomanien - Turonien) d'Argentine et d'Australie. 
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été nommé par Poropat et ses collègues en 2021[2], et contient quatre genres : Australotitan, Savannasaurus et Diamantinasaurus de la Formation de Winton du Queensland, Australie, ainsi que Sarmientosaurus de la formation Bajo Barreal de Patagonie. 
-L'existence de ce clade indique une connectivité entre l'Australie et l'Amérique du Sud via l'Antarctique pendant la période du Crétacé[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé par Poropat et ses collègues en 2021, et contient quatre genres : Australotitan, Savannasaurus et Diamantinasaurus de la Formation de Winton du Queensland, Australie, ainsi que Sarmientosaurus de la formation Bajo Barreal de Patagonie. 
+L'existence de ce clade indique une connectivité entre l'Australie et l'Amérique du Sud via l'Antarctique pendant la période du Crétacé.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que Diamantinasauria ait été récupéré de manière cohérente en tant que clade dans les analyses phylogénétiques de Poropat et de ses collègues, son placement au sein de Titanosauria a fluctué, ce qui signifie que bien qu'il semble être relativement stable en tant que clade, son contenu et sa définition peuvent changer avec des analyses et des études supplémentaires[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que Diamantinasauria ait été récupéré de manière cohérente en tant que clade dans les analyses phylogénétiques de Poropat et de ses collègues, son placement au sein de Titanosauria a fluctué, ce qui signifie que bien qu'il semble être relativement stable en tant que clade, son contenu et sa définition peuvent changer avec des analyses et des études supplémentaires.
 </t>
         </is>
       </c>
